--- a/data/case1/14/Q1_2.xlsx
+++ b/data/case1/14/Q1_2.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.19752476865115653</v>
+        <v>0.30448347740663451</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0059999999589770425</v>
+        <v>-0.0059999999712410101</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0039999999641917583</v>
+        <v>-0.0039999999712607703</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0079999999342170725</v>
+        <v>-0.0079999999509698938</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0029999999634275909</v>
+        <v>-0.0029999999712391201</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0019999999618516284</v>
+        <v>-0.0019999999710869076</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.022328348404442533</v>
+        <v>-0.0099999999351458868</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0099999999051698651</v>
+        <v>-0.0099999999349331681</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.023612945128617113</v>
+        <v>-0.0019999999715545336</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0019999999513213851</v>
+        <v>-0.0019999999723090411</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0105500756937289</v>
+        <v>0.032489237710034757</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0034999999405482818</v>
+        <v>-0.0034999999649802938</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0034999999371088109</v>
+        <v>-0.0034999999628313461</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0079999999066870942</v>
+        <v>-0.0079999999420135026</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.00099999995208488457</v>
+        <v>-0.00099999997319777378</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0019999999449309414</v>
+        <v>-0.0019999999683135705</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0019999999441813188</v>
+        <v>-0.0019999999678503855</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0039999999307767098</v>
+        <v>-0.0039999999586770585</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0039999999714797063</v>
+        <v>-0.050977678753525879</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0039999999655453422</v>
+        <v>-0.0039999999781414886</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.027460918273948032</v>
+        <v>-0.0039999999779229967</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0039999999639279693</v>
+        <v>-0.0039999999777498019</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0049999999554604102</v>
+        <v>-0.034435063589466353</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.019999999853248518</v>
+        <v>-0.019999999887263975</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.019999999851286532</v>
+        <v>-0.079235648792076674</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0024999999575783249</v>
+        <v>-0.0024999999680730411</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0024999999559649488</v>
+        <v>-0.0024999999668398054</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0019999999527460233</v>
+        <v>-0.0019999999642825728</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.031763202580942007</v>
+        <v>-0.0069999999384222633</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.059999999562903472</v>
+        <v>-0.059999999698133966</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.0069999999080092579</v>
+        <v>0.028507653454292736</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0099999998878370633</v>
+        <v>-0.0099999999240729665</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0039999999270783348</v>
+        <v>-0.003999999950998756</v>
       </c>
     </row>
   </sheetData>
